--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Icam2-Itgb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.9323339848569</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H2">
-        <v>49.9323339848569</v>
+        <v>150.522118</v>
       </c>
       <c r="I2">
-        <v>0.8160399324321872</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J2">
-        <v>0.8160399324321872</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>131.751028136148</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="N2">
-        <v>131.751028136148</v>
+        <v>0.848335</v>
       </c>
       <c r="O2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="P2">
-        <v>0.4909884401023307</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="Q2">
-        <v>6578.63633974242</v>
+        <v>14.18813121928111</v>
       </c>
       <c r="R2">
-        <v>6578.63633974242</v>
+        <v>127.69318097353</v>
       </c>
       <c r="S2">
-        <v>0.400666173486091</v>
+        <v>0.0008076796934805364</v>
       </c>
       <c r="T2">
-        <v>0.400666173486091</v>
+        <v>0.0008076796934805364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.9323339848569</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H3">
-        <v>49.9323339848569</v>
+        <v>150.522118</v>
       </c>
       <c r="I3">
-        <v>0.8160399324321872</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J3">
-        <v>0.8160399324321872</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>136.587322373059</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="N3">
-        <v>136.587322373059</v>
+        <v>0.093691</v>
       </c>
       <c r="O3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="P3">
-        <v>0.5090115598976694</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="Q3">
-        <v>6820.1237988289</v>
+        <v>1.566951973059778</v>
       </c>
       <c r="R3">
-        <v>6820.1237988289</v>
+        <v>14.102567757538</v>
       </c>
       <c r="S3">
-        <v>0.4153737589460964</v>
+        <v>8.920098565058018E-05</v>
       </c>
       <c r="T3">
-        <v>0.4153737589460964</v>
+        <v>8.920098565058018E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -658,57 +658,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.4777736733186</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H4">
-        <v>1.4777736733186</v>
+        <v>150.522118</v>
       </c>
       <c r="I4">
-        <v>0.02415113078612945</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J4">
-        <v>0.02415113078612945</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>131.751028136148</v>
+        <v>133.2267966666667</v>
       </c>
       <c r="N4">
-        <v>131.751028136148</v>
+        <v>399.68039</v>
       </c>
       <c r="O4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833459</v>
       </c>
       <c r="P4">
-        <v>0.4909884401023307</v>
+        <v>0.4769616215833458</v>
       </c>
       <c r="Q4">
-        <v>194.6982008122577</v>
+        <v>6684.526536207336</v>
       </c>
       <c r="R4">
-        <v>194.6982008122577</v>
+        <v>60160.73882586602</v>
       </c>
       <c r="S4">
-        <v>0.01185792603138907</v>
+        <v>0.3805262483398437</v>
       </c>
       <c r="T4">
-        <v>0.01185792603138907</v>
+        <v>0.3805262483398436</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.4777736733186</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H5">
-        <v>1.4777736733186</v>
+        <v>150.522118</v>
       </c>
       <c r="I5">
-        <v>0.02415113078612945</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J5">
-        <v>0.02415113078612945</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>136.587322373059</v>
+        <v>145.729604</v>
       </c>
       <c r="N5">
-        <v>136.587322373059</v>
+        <v>437.188812</v>
       </c>
       <c r="O5">
-        <v>0.5090115598976694</v>
+        <v>0.5217225811594522</v>
       </c>
       <c r="P5">
-        <v>0.5090115598976694</v>
+        <v>0.5217225811594521</v>
       </c>
       <c r="Q5">
-        <v>201.8451491119872</v>
+        <v>7311.84288312709</v>
       </c>
       <c r="R5">
-        <v>201.8451491119872</v>
+        <v>65806.58594814381</v>
       </c>
       <c r="S5">
-        <v>0.01229320475474038</v>
+        <v>0.4162371299890725</v>
       </c>
       <c r="T5">
-        <v>0.01229320475474038</v>
+        <v>0.4162371299890725</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,60 +779,60 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.23787526426819</v>
+        <v>50.17403933333333</v>
       </c>
       <c r="H6">
-        <v>4.23787526426819</v>
+        <v>150.522118</v>
       </c>
       <c r="I6">
-        <v>0.06925923882024523</v>
+        <v>0.7978131386685359</v>
       </c>
       <c r="J6">
-        <v>0.06925923882024523</v>
+        <v>0.797813138668536</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>131.751028136148</v>
+        <v>0.053525</v>
       </c>
       <c r="N6">
-        <v>131.751028136148</v>
+        <v>0.160575</v>
       </c>
       <c r="O6">
-        <v>0.4909884401023307</v>
+        <v>0.000191623392845833</v>
       </c>
       <c r="P6">
-        <v>0.4909884401023307</v>
+        <v>0.000191623392845833</v>
       </c>
       <c r="Q6">
-        <v>558.3444231800839</v>
+        <v>2.685565455316667</v>
       </c>
       <c r="R6">
-        <v>558.3444231800839</v>
+        <v>24.17008909785</v>
       </c>
       <c r="S6">
-        <v>0.034005485631027</v>
+        <v>0.0001528796604886479</v>
       </c>
       <c r="T6">
-        <v>0.034005485631027</v>
+        <v>0.0001528796604886479</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>25</v>
@@ -841,60 +841,60 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.23787526426819</v>
+        <v>1.656685</v>
       </c>
       <c r="H7">
-        <v>4.23787526426819</v>
+        <v>4.970055</v>
       </c>
       <c r="I7">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J7">
-        <v>0.06925923882024523</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>136.587322373059</v>
+        <v>0.2827783333333333</v>
       </c>
       <c r="N7">
-        <v>136.587322373059</v>
+        <v>0.848335</v>
       </c>
       <c r="O7">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="P7">
-        <v>0.5090115598976694</v>
+        <v>0.00101236699965667</v>
       </c>
       <c r="Q7">
-        <v>578.8400348974119</v>
+        <v>0.4684746231583333</v>
       </c>
       <c r="R7">
-        <v>578.8400348974119</v>
+        <v>4.216271608425</v>
       </c>
       <c r="S7">
-        <v>0.03525375318921825</v>
+        <v>2.666858899089772E-05</v>
       </c>
       <c r="T7">
-        <v>0.03525375318921825</v>
+        <v>2.666858899089772E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.89843949724443</v>
+        <v>1.656685</v>
       </c>
       <c r="H8">
-        <v>4.89843949724443</v>
+        <v>4.970055</v>
       </c>
       <c r="I8">
-        <v>0.08005478449228469</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J8">
-        <v>0.08005478449228469</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>131.751028136148</v>
+        <v>0.03123033333333333</v>
       </c>
       <c r="N8">
-        <v>131.751028136148</v>
+        <v>0.093691</v>
       </c>
       <c r="O8">
-        <v>0.4909884401023307</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="P8">
-        <v>0.4909884401023307</v>
+        <v>0.0001118068646994796</v>
       </c>
       <c r="Q8">
-        <v>645.3744400246695</v>
+        <v>0.05173882477833334</v>
       </c>
       <c r="R8">
-        <v>645.3744400246695</v>
+        <v>0.465649423005</v>
       </c>
       <c r="S8">
-        <v>0.03930597376059512</v>
+        <v>2.945306713911602E-06</v>
       </c>
       <c r="T8">
-        <v>0.03930597376059512</v>
+        <v>2.945306713911601E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.89843949724443</v>
+        <v>1.656685</v>
       </c>
       <c r="H9">
-        <v>4.89843949724443</v>
+        <v>4.970055</v>
       </c>
       <c r="I9">
-        <v>0.08005478449228469</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J9">
-        <v>0.08005478449228469</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>136.587322373059</v>
+        <v>133.2267966666667</v>
       </c>
       <c r="N9">
-        <v>136.587322373059</v>
+        <v>399.68039</v>
       </c>
       <c r="O9">
-        <v>0.5090115598976694</v>
+        <v>0.4769616215833459</v>
       </c>
       <c r="P9">
-        <v>0.5090115598976694</v>
+        <v>0.4769616215833458</v>
       </c>
       <c r="Q9">
-        <v>669.0647347350501</v>
+        <v>220.7148356357167</v>
       </c>
       <c r="R9">
-        <v>669.0647347350501</v>
+        <v>1986.43352072145</v>
       </c>
       <c r="S9">
-        <v>0.04074881073168959</v>
+        <v>0.01256450818206453</v>
       </c>
       <c r="T9">
-        <v>0.04074881073168959</v>
+        <v>0.01256450818206452</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,1047 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.642168971954678</v>
+        <v>1.656685</v>
       </c>
       <c r="H10">
-        <v>0.642168971954678</v>
+        <v>4.970055</v>
       </c>
       <c r="I10">
-        <v>0.01049491346915344</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="J10">
-        <v>0.01049491346915344</v>
+        <v>0.02634280749959451</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>131.751028136148</v>
+        <v>145.729604</v>
       </c>
       <c r="N10">
-        <v>131.751028136148</v>
+        <v>437.188812</v>
       </c>
       <c r="O10">
-        <v>0.4909884401023307</v>
+        <v>0.5217225811594522</v>
       </c>
       <c r="P10">
-        <v>0.4909884401023307</v>
+        <v>0.5217225811594521</v>
       </c>
       <c r="Q10">
-        <v>84.60642229216202</v>
+        <v>241.42804900274</v>
       </c>
       <c r="R10">
-        <v>84.60642229216202</v>
+        <v>2172.85244102466</v>
       </c>
       <c r="S10">
-        <v>0.005152881193228586</v>
+        <v>0.01374363752367503</v>
       </c>
       <c r="T10">
-        <v>0.005152881193228586</v>
+        <v>0.01374363752367502</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.656685</v>
+      </c>
+      <c r="H11">
+        <v>4.970055</v>
+      </c>
+      <c r="I11">
+        <v>0.02634280749959451</v>
+      </c>
+      <c r="J11">
+        <v>0.02634280749959451</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.053525</v>
+      </c>
+      <c r="N11">
+        <v>0.160575</v>
+      </c>
+      <c r="O11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P11">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q11">
+        <v>0.08867406462500001</v>
+      </c>
+      <c r="R11">
+        <v>0.798066581625</v>
+      </c>
+      <c r="S11">
+        <v>5.047898150156957E-06</v>
+      </c>
+      <c r="T11">
+        <v>5.047898150156956E-06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>4.722579</v>
+      </c>
+      <c r="H12">
+        <v>14.167737</v>
+      </c>
+      <c r="I12">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="J12">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.848335</v>
+      </c>
+      <c r="O12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P12">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q12">
+        <v>1.335443018655</v>
+      </c>
+      <c r="R12">
+        <v>12.018987167895</v>
+      </c>
+      <c r="S12">
+        <v>7.602200679552527E-05</v>
+      </c>
+      <c r="T12">
+        <v>7.602200679552524E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.722579</v>
+      </c>
+      <c r="H13">
+        <v>14.167737</v>
+      </c>
+      <c r="I13">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="J13">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.093691</v>
+      </c>
+      <c r="O13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P13">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q13">
+        <v>0.147487716363</v>
+      </c>
+      <c r="R13">
+        <v>1.327389447267</v>
+      </c>
+      <c r="S13">
+        <v>8.395949523100612E-06</v>
+      </c>
+      <c r="T13">
+        <v>8.39594952310061E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>4.722579</v>
+      </c>
+      <c r="H14">
+        <v>14.167737</v>
+      </c>
+      <c r="I14">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="J14">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N14">
+        <v>399.68039</v>
+      </c>
+      <c r="O14">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P14">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q14">
+        <v>629.17407217527</v>
+      </c>
+      <c r="R14">
+        <v>5662.566649577429</v>
+      </c>
+      <c r="S14">
+        <v>0.03581663532050215</v>
+      </c>
+      <c r="T14">
+        <v>0.03581663532050214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.642168971954678</v>
-      </c>
-      <c r="H11">
-        <v>0.642168971954678</v>
-      </c>
-      <c r="I11">
-        <v>0.01049491346915344</v>
-      </c>
-      <c r="J11">
-        <v>0.01049491346915344</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>136.587322373059</v>
-      </c>
-      <c r="N11">
-        <v>136.587322373059</v>
-      </c>
-      <c r="O11">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="P11">
-        <v>0.5090115598976694</v>
-      </c>
-      <c r="Q11">
-        <v>87.7121403903495</v>
-      </c>
-      <c r="R11">
-        <v>87.7121403903495</v>
-      </c>
-      <c r="S11">
-        <v>0.005342032275924852</v>
-      </c>
-      <c r="T11">
-        <v>0.005342032275924852</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>4.722579</v>
+      </c>
+      <c r="H15">
+        <v>14.167737</v>
+      </c>
+      <c r="I15">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="J15">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>145.729604</v>
+      </c>
+      <c r="N15">
+        <v>437.188812</v>
+      </c>
+      <c r="O15">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P15">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q15">
+        <v>688.219567528716</v>
+      </c>
+      <c r="R15">
+        <v>6193.976107758444</v>
+      </c>
+      <c r="S15">
+        <v>0.03917788472336001</v>
+      </c>
+      <c r="T15">
+        <v>0.03917788472336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>4.722579</v>
+      </c>
+      <c r="H16">
+        <v>14.167737</v>
+      </c>
+      <c r="I16">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="J16">
+        <v>0.07509332763840293</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.053525</v>
+      </c>
+      <c r="N16">
+        <v>0.160575</v>
+      </c>
+      <c r="O16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P16">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q16">
+        <v>0.2527760409749999</v>
+      </c>
+      <c r="R16">
+        <v>2.274984368775</v>
+      </c>
+      <c r="S16">
+        <v>1.438963822215454E-05</v>
+      </c>
+      <c r="T16">
+        <v>1.438963822215454E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.507876</v>
+      </c>
+      <c r="H17">
+        <v>16.523628</v>
+      </c>
+      <c r="I17">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J17">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.848335</v>
+      </c>
+      <c r="O17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P17">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q17">
+        <v>1.557507995486667</v>
+      </c>
+      <c r="R17">
+        <v>14.01757195938</v>
+      </c>
+      <c r="S17">
+        <v>8.866337369918228E-05</v>
+      </c>
+      <c r="T17">
+        <v>8.866337369918226E-05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>5.507876</v>
+      </c>
+      <c r="H18">
+        <v>16.523628</v>
+      </c>
+      <c r="I18">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J18">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N18">
+        <v>0.093691</v>
+      </c>
+      <c r="O18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P18">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q18">
+        <v>0.1720128034386667</v>
+      </c>
+      <c r="R18">
+        <v>1.548115230948</v>
+      </c>
+      <c r="S18">
+        <v>9.792075235903371E-06</v>
+      </c>
+      <c r="T18">
+        <v>9.792075235903371E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>5.507876</v>
+      </c>
+      <c r="H19">
+        <v>16.523628</v>
+      </c>
+      <c r="I19">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J19">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N19">
+        <v>399.68039</v>
+      </c>
+      <c r="O19">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P19">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q19">
+        <v>733.7966759172134</v>
+      </c>
+      <c r="R19">
+        <v>6604.17008325492</v>
+      </c>
+      <c r="S19">
+        <v>0.04177242690541463</v>
+      </c>
+      <c r="T19">
+        <v>0.04177242690541462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>5.507876</v>
+      </c>
+      <c r="H20">
+        <v>16.523628</v>
+      </c>
+      <c r="I20">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J20">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>145.729604</v>
+      </c>
+      <c r="N20">
+        <v>437.188812</v>
+      </c>
+      <c r="O20">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P20">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q20">
+        <v>802.660588361104</v>
+      </c>
+      <c r="R20">
+        <v>7223.945295249937</v>
+      </c>
+      <c r="S20">
+        <v>0.04569260376556141</v>
+      </c>
+      <c r="T20">
+        <v>0.04569260376556141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5.507876</v>
+      </c>
+      <c r="H21">
+        <v>16.523628</v>
+      </c>
+      <c r="I21">
+        <v>0.08758026854811665</v>
+      </c>
+      <c r="J21">
+        <v>0.08758026854811667</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.053525</v>
+      </c>
+      <c r="N21">
+        <v>0.160575</v>
+      </c>
+      <c r="O21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P21">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q21">
+        <v>0.2948090629</v>
+      </c>
+      <c r="R21">
+        <v>2.6532815661</v>
+      </c>
+      <c r="S21">
+        <v>1.678242820553931E-05</v>
+      </c>
+      <c r="T21">
+        <v>1.678242820553931E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.828283</v>
+      </c>
+      <c r="H22">
+        <v>2.484849</v>
+      </c>
+      <c r="I22">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J22">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.2827783333333333</v>
+      </c>
+      <c r="N22">
+        <v>0.848335</v>
+      </c>
+      <c r="O22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="P22">
+        <v>0.00101236699965667</v>
+      </c>
+      <c r="Q22">
+        <v>0.2342204862683333</v>
+      </c>
+      <c r="R22">
+        <v>2.107984376415</v>
+      </c>
+      <c r="S22">
+        <v>1.333333669052822E-05</v>
+      </c>
+      <c r="T22">
+        <v>1.333333669052821E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.828283</v>
+      </c>
+      <c r="H23">
+        <v>2.484849</v>
+      </c>
+      <c r="I23">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J23">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M23">
+        <v>0.03123033333333333</v>
+      </c>
+      <c r="N23">
+        <v>0.093691</v>
+      </c>
+      <c r="O23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="P23">
+        <v>0.0001118068646994796</v>
+      </c>
+      <c r="Q23">
+        <v>0.02586755418433333</v>
+      </c>
+      <c r="R23">
+        <v>0.232807987659</v>
+      </c>
+      <c r="S23">
+        <v>1.472547575983873E-06</v>
+      </c>
+      <c r="T23">
+        <v>1.472547575983873E-06</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.828283</v>
+      </c>
+      <c r="H24">
+        <v>2.484849</v>
+      </c>
+      <c r="I24">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J24">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>133.2267966666667</v>
+      </c>
+      <c r="N24">
+        <v>399.68039</v>
+      </c>
+      <c r="O24">
+        <v>0.4769616215833459</v>
+      </c>
+      <c r="P24">
+        <v>0.4769616215833458</v>
+      </c>
+      <c r="Q24">
+        <v>110.3494908234567</v>
+      </c>
+      <c r="R24">
+        <v>993.14541741111</v>
+      </c>
+      <c r="S24">
+        <v>0.006281802835520905</v>
+      </c>
+      <c r="T24">
+        <v>0.006281802835520904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.828283</v>
+      </c>
+      <c r="H25">
+        <v>2.484849</v>
+      </c>
+      <c r="I25">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J25">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>145.729604</v>
+      </c>
+      <c r="N25">
+        <v>437.188812</v>
+      </c>
+      <c r="O25">
+        <v>0.5217225811594522</v>
+      </c>
+      <c r="P25">
+        <v>0.5217225811594521</v>
+      </c>
+      <c r="Q25">
+        <v>120.705353589932</v>
+      </c>
+      <c r="R25">
+        <v>1086.348182309388</v>
+      </c>
+      <c r="S25">
+        <v>0.006871325157783237</v>
+      </c>
+      <c r="T25">
+        <v>0.006871325157783235</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.828283</v>
+      </c>
+      <c r="H26">
+        <v>2.484849</v>
+      </c>
+      <c r="I26">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="J26">
+        <v>0.01317045764534999</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.053525</v>
+      </c>
+      <c r="N26">
+        <v>0.160575</v>
+      </c>
+      <c r="O26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="P26">
+        <v>0.000191623392845833</v>
+      </c>
+      <c r="Q26">
+        <v>0.04433384757499999</v>
+      </c>
+      <c r="R26">
+        <v>0.399004628175</v>
+      </c>
+      <c r="S26">
+        <v>2.523767779334306E-06</v>
+      </c>
+      <c r="T26">
+        <v>2.523767779334305E-06</v>
       </c>
     </row>
   </sheetData>
